--- a/pie_community_logos.xlsx
+++ b/pie_community_logos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwallace.secure\Documents\Git Repos\PIE-Logos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9173F5C6-7950-4F95-B9CD-9003AB960F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FA847-78CB-4EEB-95A4-76F4F49F8F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{570DFFD5-5DC0-480E-9EEE-DC9F928AA597}"/>
   </bookViews>
@@ -299,65 +299,73 @@
     <t>Menomonie</t>
   </si>
   <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/aurora.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/arapahoe%20county.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/boulder.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/broomfield.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/centennial.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/central%20city%20colorado.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/Denver%20Zoo.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/DMNS.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/edgewater.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/englewood.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/erie.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/fort%20collins%20utilities.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/Frisco.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/garfield%20county.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/grand%20county.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/greeley.png</t>
-  </si>
-  <si>
-    <t>https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/jeffco.png</t>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/aurora.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/arapahoe%20county.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/boulder.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/broomfield.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/centennial.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/central%20city%20colorado.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/DMNS.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/Denver%20Zoo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/edgewater.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/englewood.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/erie.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/fort%20collins%20utilities.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/Frisco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/garfield%20county.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/grand%20county.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/greeley.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/jeffco.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -380,13 +388,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -719,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93BA491B-4510-4D80-8A6E-F10E05C2D8C4}">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -835,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,7 +875,7 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1044,7 +1055,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1068,15 +1079,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1084,7 +1096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1092,7 +1104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1108,7 +1120,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1128,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1156,7 +1168,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1164,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1445,6 +1457,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" display="https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/englewood.png" xr:uid="{CFFD9302-7802-4C74-AD1C-F70A3C2839AE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pie_community_logos.xlsx
+++ b/pie_community_logos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwallace.secure\Documents\Git Repos\PIE-Logos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20FA847-78CB-4EEB-95A4-76F4F49F8F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F12312-C339-4901-9E28-21B31033C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="31800" xr2:uid="{570DFFD5-5DC0-480E-9EEE-DC9F928AA597}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{570DFFD5-5DC0-480E-9EEE-DC9F928AA597}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="105">
   <si>
     <t>state_name</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/jeffco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Minnesota/Bloomington_500X300.png</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,6 +1138,9 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">

--- a/pie_community_logos.xlsx
+++ b/pie_community_logos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vwallace.secure\Documents\Git Repos\PIE-Logos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F12312-C339-4901-9E28-21B31033C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF820DF-5933-47C5-9595-EA063C82579A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{570DFFD5-5DC0-480E-9EEE-DC9F928AA597}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Colorado/jeffco.png</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Minnesota/Bloomington_500X300.png</t>
+    <t>https://raw.githubusercontent.com/Brendle-Group/PIE-Logos/refs/heads/main/Minnesota/Bloomington.png</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:S82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1138,7 @@
       <c r="B42" t="s">
         <v>45</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1465,6 +1465,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" display="https://github.com/Brendle-Group/PIE-Logos/blob/main/Colorado/englewood.png" xr:uid="{CFFD9302-7802-4C74-AD1C-F70A3C2839AE}"/>
+    <hyperlink ref="C42" r:id="rId2" xr:uid="{C38D9350-DE2A-4E63-9A1C-3C89746D249E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
